--- a/biology/Microbiologie/Jonquetella/Jonquetella.xlsx
+++ b/biology/Microbiologie/Jonquetella/Jonquetella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jonquetella est un genre de bactéries de la division des Synergistetes, décrit en 2009 par Estelle Jumas-Bilak et al. Il regroupe des bacilles à Gram négatif anaérobies pathogènes opportunistes de l'Homme.
 </t>
@@ -511,7 +523,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Estelle Jumas-Bilak, Jean-Philippe Carlier, Hélène Jean-Pierre et Diane Citron, « Jonquetella anthropi gen. nov., sp. nov., the first member of the candidate phylum ‘Synergistetes’ isolated from man », International Journal of Systematic and Evolutionary Microbiology, vol. 57, no 12,‎ 1er décembre 2007, p. 2743–2748 (ISSN 1466-5026 et 1466-5034, DOI 10.1099/ijs.0.65213-0, lire en ligne, consulté le 9 décembre 2020)
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 janv. 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 janv. 2012) :
 Jonquetella anthropi</t>
         </is>
       </c>
